--- a/application/models/file.xlsx
+++ b/application/models/file.xlsx
@@ -15,48 +15,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>import xlrd</t>
-  </si>
-  <si>
-    <t>import itertools</t>
-  </si>
-  <si>
-    <t>import pandas as pd</t>
-  </si>
-  <si>
-    <t>import xlsxwriter</t>
-  </si>
-  <si>
-    <t>import json</t>
-  </si>
-  <si>
-    <t>import csv</t>
-  </si>
-  <si>
-    <t>rb1 = xlrd.open_workbook("C:\\xampp\\htdocs\\my_project\\secondtry\\py_in_php\\test.xlsx")#hier muss der pfad geÃ¤ndert werden.</t>
-  </si>
-  <si>
-    <t>#rb1 = csv.reader("C:\\xampp\\htdocs\\my_project\\secondtry\\py_in_php\\test.csv")</t>
-  </si>
-  <si>
-    <t>#rb1 = pd.read_csv("C:\\xampp\\htdocs\\my_project\\secondtry\\py_in_php\\test.csv")</t>
-  </si>
-  <si>
-    <t>nrarray = rb1.sheet_by_index(0)</t>
-  </si>
-  <si>
-    <t>col_nrarray = nrarray.col_values(0)</t>
-  </si>
-  <si>
-    <t>col_nrarray.remove('Matrnr')</t>
-  </si>
-  <si>
-    <t>for i in range(len(col_nrarray)):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	print(int(col_nrarray[i]))</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>Matrnr;Anrede;Nachname;Vorname;Email;Note;Punkte;Prfbem;Prfbem-Bezeichnung;Versuch;Studiengang;Fachgruppe;Fachsemester;Vorbehalt</t>
+  </si>
+  <si>
+    <t>99999999;Herr;A;Vorname A;Vorname A.A@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);7;0</t>
+  </si>
+  <si>
+    <t>99999999;Frau;Ž;Vorname K;Vorname K.Ž@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);5;0</t>
+  </si>
+  <si>
+    <t>123456791;Herr;B;Vorname Ž;Vorname Ž.B@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456792;Herr;C;Vorname Y;Vorname Y.C@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456793;Herr;D;Vorname C;Vorname C.D@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456794;Herr;E;Vorname N;Vorname N.E@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Freier Wahlbereich;5;0</t>
+  </si>
+  <si>
+    <t>123456795;Herr;F;Vorname D;Vorname D.F@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456796;Frau;G;Vorname E;Vorname E.G@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);4;0</t>
+  </si>
+  <si>
+    <t>123456797;Herr;H;Vorname F;Vorname F.H@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Freier Wahlbereich;6;0</t>
+  </si>
+  <si>
+    <t>123456798;Frau;I;Vorname S;Vorname S.I@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456799;Frau;J;Vorname G;Vorname G.J@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);4;0</t>
+  </si>
+  <si>
+    <t>123456800;Frau;K;Vorname H;Vorname H.K@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);8;0</t>
+  </si>
+  <si>
+    <t>123456801;Herr;L;Vorname I;Vorname I.L@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Freier Wahlbereich;7;0</t>
+  </si>
+  <si>
+    <t>123456802;Herr;O;Vorname T;Vorname T.O@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Freier Wahlbereich;6;0</t>
+  </si>
+  <si>
+    <t>123456803;Frau;™;Vorname J;Vorname J.™@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);7;0</t>
+  </si>
+  <si>
+    <t>123456804;Herr;P;Vorname U;Vorname U.P@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456805;Frau;Q;Vorname L;Vorname L.Q@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);4;0</t>
+  </si>
+  <si>
+    <t>123456806;Frau;R;Vorname O;Vorname O.R@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456807;Herr;S;Vorname B;Vorname B.S@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Freier Wahlbereich;7;0</t>
+  </si>
+  <si>
+    <t>123456808;Herr;T;Vorname P;Vorname P.T@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);11;0</t>
+  </si>
+  <si>
+    <t>123456809;Herr;U;Vorname R;Vorname R.U@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);4;0</t>
+  </si>
+  <si>
+    <t>123456810;Herr;š;Vorname V;Vorname V.š@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);7;0</t>
+  </si>
+  <si>
+    <t>123456811;Herr;V;Vorname Z;Vorname Z.V@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456812;Herr;W;Vorname M;Vorname M.W@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456813;Herr;X;Vorname X;Vorname X.X@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
+  </si>
+  <si>
+    <t>123456814;Herr;Y;Vorname W;Vorname W.Y@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);7;0</t>
+  </si>
+  <si>
+    <t>123456815;Herr;Z;Vorname Q;Vorname Q.Z@stud.uni-goettingen.de;;;;&lt;Ohne&gt;;1;Wirtschaftsinformatik (Bachelor of Science);Vertiefung Wirtschaftsinformatik - Wahlmodule (3 aus IIV, DIW, IKT, SRS);6;0</t>
   </si>
 </sst>
 </file>
@@ -392,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,49 +472,114 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
